--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378185.683146574</v>
+        <v>-380406.0525455232</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7294698.681965512</v>
+        <v>7294698.681965513</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.3542367966664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>399.7465330705814</v>
       </c>
       <c r="G2" t="n">
         <v>413.954084851669</v>
       </c>
       <c r="H2" t="n">
-        <v>325.6629130260453</v>
+        <v>325.6629130260452</v>
       </c>
       <c r="I2" t="n">
-        <v>158.4819577621304</v>
+        <v>158.48195776213</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.15181506969873</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2377606947592</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.6219243725646</v>
       </c>
       <c r="H3" t="n">
-        <v>105.2663770215731</v>
+        <v>105.266377021573</v>
       </c>
       <c r="I3" t="n">
-        <v>64.55231966469911</v>
+        <v>64.5523196646989</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.26174584542514</v>
+        <v>55.35578351937507</v>
       </c>
       <c r="S3" t="n">
-        <v>158.2799015056541</v>
+        <v>158.279901505654</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.2562033676124</v>
       </c>
       <c r="U3" t="n">
         <v>225.8939088710639</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>3.332454735755014</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>50.58856780127606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>35.50496339607921</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>150.0922278807117</v>
       </c>
       <c r="S4" t="n">
-        <v>93.04090303448837</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.3607639443885</v>
+        <v>21.66010495684008</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9.771249354930134</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>111.699702232873</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>74.53436060286491</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>208.342310594081</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>117.3399053404218</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>344.3645848251173</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>27.37301815328992</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>173.7001491014861</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>73.72230024080426</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>39.65787474377895</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>52.23503801326329</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>134.0389899623038</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>68.74868616823393</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>52.23503801326208</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4424312885289794</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>136.9453092564113</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249705</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9676794974413</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442776</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785989</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4771497629683</v>
+        <v>202.4425172951281</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>145.3843559071597</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.109662655915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.7576914549236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>57.68750238080759</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124593</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3740,25 +3740,25 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.364668378300848e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>101.64033639962</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145587</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1753.959836546296</v>
+        <v>1360.970055997415</v>
       </c>
       <c r="C2" t="n">
-        <v>1753.959836546296</v>
+        <v>1360.970055997415</v>
       </c>
       <c r="D2" t="n">
-        <v>1753.959836546296</v>
+        <v>1360.970055997415</v>
       </c>
       <c r="E2" t="n">
-        <v>1368.171583948051</v>
+        <v>1360.970055997415</v>
       </c>
       <c r="F2" t="n">
-        <v>957.1856791584438</v>
+        <v>957.1856791584435</v>
       </c>
       <c r="G2" t="n">
-        <v>539.0502399143337</v>
+        <v>539.0502399143334</v>
       </c>
       <c r="H2" t="n">
-        <v>210.0978025142879</v>
+        <v>210.0978025142877</v>
       </c>
       <c r="I2" t="n">
-        <v>50.0150168959743</v>
+        <v>50.01501689597456</v>
       </c>
       <c r="J2" t="n">
-        <v>151.5057773408023</v>
+        <v>151.5057773408036</v>
       </c>
       <c r="K2" t="n">
-        <v>424.3589227296925</v>
+        <v>424.3589227296952</v>
       </c>
       <c r="L2" t="n">
-        <v>815.134004452373</v>
+        <v>815.1340044523772</v>
       </c>
       <c r="M2" t="n">
-        <v>1266.553122639174</v>
+        <v>1266.553122639181</v>
       </c>
       <c r="N2" t="n">
-        <v>1710.644676556583</v>
+        <v>1710.644676556592</v>
       </c>
       <c r="O2" t="n">
-        <v>2084.800100136284</v>
+        <v>2084.800100136294</v>
       </c>
       <c r="P2" t="n">
-        <v>2366.458714862362</v>
+        <v>2366.458714862374</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.750844798715</v>
+        <v>2500.750844798728</v>
       </c>
       <c r="R2" t="n">
-        <v>2500.750844798715</v>
+        <v>2434.940930586911</v>
       </c>
       <c r="S2" t="n">
-        <v>2500.750844798715</v>
+        <v>2434.940930586911</v>
       </c>
       <c r="T2" t="n">
-        <v>2500.750844798715</v>
+        <v>2434.940930586911</v>
       </c>
       <c r="U2" t="n">
-        <v>2246.975328945422</v>
+        <v>2434.940930586911</v>
       </c>
       <c r="V2" t="n">
-        <v>2246.975328945422</v>
+        <v>2103.87804324334</v>
       </c>
       <c r="W2" t="n">
-        <v>2246.975328945422</v>
+        <v>1751.109387973226</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.509570684343</v>
+        <v>1751.109387973226</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.509570684343</v>
+        <v>1360.970055997415</v>
       </c>
     </row>
     <row r="3">
@@ -4392,10 +4392,10 @@
         <v>665.3230107420568</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0855557366013</v>
+        <v>506.0855557366012</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5509977634863</v>
+        <v>359.5509977634862</v>
       </c>
       <c r="G3" t="n">
         <v>221.5490539528149</v>
@@ -4404,52 +4404,52 @@
         <v>115.2193801936502</v>
       </c>
       <c r="I3" t="n">
-        <v>50.0150168959743</v>
+        <v>50.01501689597456</v>
       </c>
       <c r="J3" t="n">
-        <v>50.0150168959743</v>
+        <v>116.7688388525975</v>
       </c>
       <c r="K3" t="n">
-        <v>290.7287741269797</v>
+        <v>357.4825960836038</v>
       </c>
       <c r="L3" t="n">
-        <v>570.7264427531338</v>
+        <v>742.5563448902078</v>
       </c>
       <c r="M3" t="n">
-        <v>1072.068566495398</v>
+        <v>1243.898468632474</v>
       </c>
       <c r="N3" t="n">
-        <v>1602.386737850529</v>
+        <v>1774.216639987606</v>
       </c>
       <c r="O3" t="n">
-        <v>2021.108580324986</v>
+        <v>2021.108580324998</v>
       </c>
       <c r="P3" t="n">
-        <v>2340.166706403052</v>
+        <v>2340.166706403064</v>
       </c>
       <c r="Q3" t="n">
-        <v>2500.750844798715</v>
+        <v>2500.750844798728</v>
       </c>
       <c r="R3" t="n">
-        <v>2449.981404550811</v>
+        <v>2444.835911950874</v>
       </c>
       <c r="S3" t="n">
-        <v>2290.102716161261</v>
+        <v>2284.957223561325</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.102716161261</v>
+        <v>2085.708533291009</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.927050634934</v>
+        <v>1857.532867764682</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.774942403191</v>
+        <v>1622.380759532939</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.53758567499</v>
+        <v>1368.143402804738</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.686085469457</v>
+        <v>1160.291902599205</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.925786704503</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.0150168959743</v>
+        <v>270.0507632595139</v>
       </c>
       <c r="C4" t="n">
-        <v>50.0150168959743</v>
+        <v>101.114580331607</v>
       </c>
       <c r="D4" t="n">
-        <v>50.0150168959743</v>
+        <v>101.114580331607</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0150168959743</v>
+        <v>101.114580331607</v>
       </c>
       <c r="F4" t="n">
-        <v>50.0150168959743</v>
+        <v>101.114580331607</v>
       </c>
       <c r="G4" t="n">
-        <v>50.0150168959743</v>
+        <v>101.114580331607</v>
       </c>
       <c r="H4" t="n">
-        <v>50.0150168959743</v>
+        <v>101.114580331607</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0150168959743</v>
+        <v>101.114580331607</v>
       </c>
       <c r="J4" t="n">
-        <v>50.0150168959743</v>
+        <v>50.01501689597456</v>
       </c>
       <c r="K4" t="n">
-        <v>97.55062208901347</v>
+        <v>97.55062208901433</v>
       </c>
       <c r="L4" t="n">
-        <v>213.9062654030055</v>
+        <v>213.9062654030071</v>
       </c>
       <c r="M4" t="n">
-        <v>346.9761001071005</v>
+        <v>346.976100107103</v>
       </c>
       <c r="N4" t="n">
-        <v>482.3164479894903</v>
+        <v>482.3164479894934</v>
       </c>
       <c r="O4" t="n">
-        <v>591.3088692144609</v>
+        <v>591.3088692144648</v>
       </c>
       <c r="P4" t="n">
-        <v>661.0500323661438</v>
+        <v>661.0500323661485</v>
       </c>
       <c r="Q4" t="n">
-        <v>661.0500323661438</v>
+        <v>625.1864329761695</v>
       </c>
       <c r="R4" t="n">
-        <v>661.0500323661438</v>
+        <v>473.5781219855516</v>
       </c>
       <c r="S4" t="n">
-        <v>567.069322230297</v>
+        <v>473.5781219855516</v>
       </c>
       <c r="T4" t="n">
-        <v>339.4321869329349</v>
+        <v>451.6992280897535</v>
       </c>
       <c r="U4" t="n">
-        <v>339.4321869329349</v>
+        <v>451.6992280897535</v>
       </c>
       <c r="V4" t="n">
-        <v>339.4321869329349</v>
+        <v>451.6992280897535</v>
       </c>
       <c r="W4" t="n">
-        <v>50.0150168959743</v>
+        <v>451.6992280897535</v>
       </c>
       <c r="X4" t="n">
-        <v>50.0150168959743</v>
+        <v>451.6992280897535</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.0150168959743</v>
+        <v>451.6992280897535</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.934501327943</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1130.934501327943</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1130.934501327943</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>745.1462487296985</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>738.2007479804951</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>320.2369398786819</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.934501327943</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4671,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>517.6822058285749</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.6822058285749</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1533.27522618254</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>743.8979228366049</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>325.9341147347918</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4841,13 +4841,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1533.27522618254</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1533.27522618254</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.59249510651588</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>81.59249510651588</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>81.59249510651588</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X10" t="n">
-        <v>81.59249510651588</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.59249510651588</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2144.295495648866</v>
+        <v>2367.412126099892</v>
       </c>
       <c r="C11" t="n">
-        <v>1775.332978708454</v>
+        <v>1998.44960915948</v>
       </c>
       <c r="D11" t="n">
-        <v>1417.067280101704</v>
+        <v>1640.183910552729</v>
       </c>
       <c r="E11" t="n">
-        <v>1031.279027503459</v>
+        <v>1254.395657954485</v>
       </c>
       <c r="F11" t="n">
-        <v>620.2931227138513</v>
+        <v>843.4097531648777</v>
       </c>
       <c r="G11" t="n">
-        <v>205.2206725588477</v>
+        <v>428.3373030098742</v>
       </c>
       <c r="H11" t="n">
         <v>130.7537026186414</v>
       </c>
       <c r="I11" t="n">
-        <v>88.7568038581101</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="J11" t="n">
         <v>445.0415838374886</v>
@@ -5045,46 +5045,46 @@
         <v>1099.764915972788</v>
       </c>
       <c r="L11" t="n">
-        <v>1558.647388108473</v>
+        <v>1558.647388108474</v>
       </c>
       <c r="M11" t="n">
-        <v>2092.179292780397</v>
+        <v>2092.179292780399</v>
       </c>
       <c r="N11" t="n">
-        <v>2638.95810983918</v>
+        <v>2638.958109839181</v>
       </c>
       <c r="O11" t="n">
-        <v>3141.930580718516</v>
+        <v>3141.930580718518</v>
       </c>
       <c r="P11" t="n">
-        <v>3855.285668165462</v>
+        <v>3855.285668165464</v>
       </c>
       <c r="Q11" t="n">
-        <v>4313.76387067445</v>
+        <v>4313.763870674452</v>
       </c>
       <c r="R11" t="n">
-        <v>4437.840192905505</v>
+        <v>4437.840192905507</v>
       </c>
       <c r="S11" t="n">
-        <v>4437.840192905505</v>
+        <v>4327.549524432602</v>
       </c>
       <c r="T11" t="n">
-        <v>4231.862445289727</v>
+        <v>4121.571776816824</v>
       </c>
       <c r="U11" t="n">
-        <v>3978.331968563564</v>
+        <v>3868.041300090661</v>
       </c>
       <c r="V11" t="n">
-        <v>3647.269081219993</v>
+        <v>3536.97841274709</v>
       </c>
       <c r="W11" t="n">
-        <v>3294.500425949879</v>
+        <v>3184.209757476975</v>
       </c>
       <c r="X11" t="n">
-        <v>2921.034667688799</v>
+        <v>3144.151298139825</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.895335712987</v>
+        <v>2754.011966164014</v>
       </c>
     </row>
     <row r="12">
@@ -5109,28 +5109,28 @@
         <v>334.6290899860862</v>
       </c>
       <c r="G12" t="n">
-        <v>198.2659898187048</v>
+        <v>198.2659898187047</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7640954565725</v>
+        <v>107.7640954565722</v>
       </c>
       <c r="I12" t="n">
-        <v>88.7568038581101</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="J12" t="n">
-        <v>182.4340733487273</v>
+        <v>182.4340733487277</v>
       </c>
       <c r="K12" t="n">
-        <v>420.6982723290742</v>
+        <v>420.6982723290748</v>
       </c>
       <c r="L12" t="n">
-        <v>787.3964326417397</v>
+        <v>787.3964326417403</v>
       </c>
       <c r="M12" t="n">
-        <v>1234.672757864055</v>
+        <v>1234.672757864056</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.19580141851</v>
+        <v>1708.195801418511</v>
       </c>
       <c r="O12" t="n">
         <v>2119.157080836565</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>997.6848495996888</v>
+        <v>838.0055864324984</v>
       </c>
       <c r="C13" t="n">
-        <v>944.9221849398272</v>
+        <v>669.0694035045915</v>
       </c>
       <c r="D13" t="n">
-        <v>794.8055455274914</v>
+        <v>518.9527640922556</v>
       </c>
       <c r="E13" t="n">
-        <v>646.8924519450983</v>
+        <v>371.0396705098626</v>
       </c>
       <c r="F13" t="n">
-        <v>500.002504447188</v>
+        <v>224.1497230119523</v>
       </c>
       <c r="G13" t="n">
-        <v>332.2996678219069</v>
+        <v>224.1497230119523</v>
       </c>
       <c r="H13" t="n">
-        <v>186.0824810397647</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="I13" t="n">
-        <v>88.7568038581101</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="J13" t="n">
         <v>133.8794363050457</v>
@@ -5218,10 +5218,10 @@
         <v>1871.928939361905</v>
       </c>
       <c r="Q13" t="n">
-        <v>1949.539235514419</v>
+        <v>1949.53923551442</v>
       </c>
       <c r="R13" t="n">
-        <v>1949.539235514419</v>
+        <v>1949.53923551442</v>
       </c>
       <c r="S13" t="n">
         <v>1757.853351341246</v>
@@ -5230,19 +5230,19 @@
         <v>1757.853351341246</v>
       </c>
       <c r="U13" t="n">
-        <v>1468.750484466889</v>
+        <v>1757.853351341246</v>
       </c>
       <c r="V13" t="n">
-        <v>1468.750484466889</v>
+        <v>1757.853351341246</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.333314429929</v>
+        <v>1468.436181304286</v>
       </c>
       <c r="X13" t="n">
-        <v>1179.333314429929</v>
+        <v>1240.446630406268</v>
       </c>
       <c r="Y13" t="n">
-        <v>1179.333314429929</v>
+        <v>1019.654051262738</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7264155301117</v>
+        <v>333.9403347179519</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301117</v>
+        <v>165.0041517900449</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>165.0041517900449</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>165.0041517900449</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>165.0041517900449</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V16" t="n">
-        <v>1422.792050397312</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="W16" t="n">
-        <v>1133.374880360351</v>
+        <v>964.370929589739</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.374880360351</v>
+        <v>736.3813786917217</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.374880360351</v>
+        <v>515.5887995481916</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5519,16 +5519,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5616,16 +5616,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.0445975595968</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5976972681534</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558177</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104706</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104706</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.576850674232</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.892362468345</v>
+        <v>1025.629047175731</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.475192431384</v>
+        <v>1025.629047175731</v>
       </c>
       <c r="X19" t="n">
-        <v>962.4856415333667</v>
+        <v>1025.629047175731</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.6930623898365</v>
+        <v>804.8364680322012</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>387.7938597516208</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>721.6132334414672</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1172.647446689876</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N20" t="n">
-        <v>3027.596327402151</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O20" t="n">
-        <v>3907.560977731605</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.6340846510827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.890966501056</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>1258.075128624853</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>1258.075128624853</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>1037.282549481322</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>919.9473678912366</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1784.466183544591</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,25 +6066,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6145,37 +6145,37 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
         <v>1270.093287563029</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4302.335344088783</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.5038042865474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>392.5676213586405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894823</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.1522691167871</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1963.918173296941</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2497.450077968866</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N29" t="n">
-        <v>3044.228895027648</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P29" t="n">
         <v>4260.556453353931</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276364</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484569</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>508.5026418377233</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W31" t="n">
-        <v>1377.823429193386</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X31" t="n">
-        <v>1377.823429193386</v>
+        <v>1009.203929008206</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106604</v>
+        <v>1009.203929008206</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,19 +6701,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="C34" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="D34" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="E34" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="F34" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="G34" t="n">
+        <v>241.7782212305366</v>
+      </c>
+      <c r="H34" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C34" t="n">
+      <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="D34" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="E34" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="F34" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="G34" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="H34" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="I34" t="n">
-        <v>95.56103444839437</v>
-      </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783405</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413798</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433625</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998324</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q35" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D36" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F36" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572844</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.154208495152</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7114,22 +7114,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388314</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991713</v>
       </c>
       <c r="K38" t="n">
-        <v>1092.155029011367</v>
+        <v>727.1188267890177</v>
       </c>
       <c r="L38" t="n">
-        <v>1543.189242259776</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M38" t="n">
-        <v>2076.7211469317</v>
+        <v>1711.684944709351</v>
       </c>
       <c r="N38" t="n">
-        <v>2623.499963990483</v>
+        <v>2258.463761768133</v>
       </c>
       <c r="O38" t="n">
-        <v>3126.47243486982</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P38" t="n">
-        <v>3521.246801226998</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3979.725003735986</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834459</v>
@@ -7208,10 +7208,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
@@ -7251,25 +7251,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698006</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257046</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913848</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302709</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668918</v>
@@ -7333,10 +7333,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7360,22 +7360,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697162</v>
@@ -7397,34 +7397,34 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398493</v>
+        <v>331.28088433985</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689669056</v>
       </c>
       <c r="I41" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>393.2994530991701</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>727.1188267890166</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1178.153040037425</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1711.68494470935</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2258.463761768132</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.436232647469</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
         <v>3474.791320094415</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805549</v>
@@ -7488,25 +7488,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668918</v>
@@ -7570,10 +7570,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7588,13 +7588,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
         <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
@@ -7603,16 +7603,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7628,55 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467785</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991695</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910142</v>
+        <v>727.1188267890159</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.992678104633</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M44" t="n">
-        <v>1928.524582776558</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.30339983534</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863831</v>
@@ -7722,28 +7722,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J46" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982168</v>
@@ -7834,13 +7834,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>58.66293235392163</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>264.7028905757334</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>220.2967615625202</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>7.927534229571449</v>
+        <v>7.927534229573268</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>104.3976710547485</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>170.1140909277305</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>135.6385654278961</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>104.3976710547479</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>410.4190035206666</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>102.8529310510287</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10349,19 +10349,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>246.4545694808461</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>21.13839585591369</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550068</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>18.79169145623253</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5185911550055</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5185911550051</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>19.40311602546501</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>220.8854641465162</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>330.0732259346901</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>115.0117830853645</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>10.71602495201694</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>97.27712209079429</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>199.9026053105659</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>166.8043898100989</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>115.1923340674167</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.555318839149665</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.10750358912651</v>
+        <v>16.14213605696673</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>80.32529948187744</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.47499069617982</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270137</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25090,10 +25090,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>160.8971509712872</v>
       </c>
     </row>
     <row r="35">
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524994</v>
@@ -26320,16 +26320,16 @@
         <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>268761.4107463476</v>
+        <v>268761.4107463477</v>
       </c>
       <c r="F2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="G2" t="n">
-        <v>277957.2508208882</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="H2" t="n">
-        <v>277957.2508208883</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="I2" t="n">
         <v>277957.2508208881</v>
@@ -26338,22 +26338,22 @@
         <v>277957.2508208881</v>
       </c>
       <c r="K2" t="n">
-        <v>277957.2508208882</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="L2" t="n">
-        <v>277957.2508208882</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="M2" t="n">
         <v>287364.6194524994</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532785.1170417507</v>
+        <v>532785.1170417545</v>
       </c>
       <c r="C3" t="n">
-        <v>54350.41925868131</v>
+        <v>54350.41925867766</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>701982.4944785828</v>
+        <v>701982.4944785831</v>
       </c>
       <c r="F3" t="n">
-        <v>24369.86217639755</v>
+        <v>24369.86217639742</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163576.6135091287</v>
+        <v>163576.6135091296</v>
       </c>
       <c r="K3" t="n">
-        <v>12636.65595825556</v>
+        <v>12636.65595825471</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>101126.2087541142</v>
+        <v>101126.2087541143</v>
       </c>
       <c r="N3" t="n">
-        <v>20831.74732233213</v>
+        <v>20831.74732233197</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233988.7908692832</v>
+        <v>233988.7908692822</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26424,40 +26424,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>25961.10295481877</v>
+        <v>25961.10295481881</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="H4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="M4" t="n">
-        <v>66395.57832303867</v>
+        <v>66395.5783230387</v>
       </c>
       <c r="N4" t="n">
-        <v>66395.5783230387</v>
+        <v>66395.57832303872</v>
       </c>
       <c r="O4" t="n">
         <v>66395.5783230387</v>
       </c>
       <c r="P4" t="n">
-        <v>66395.5783230387</v>
+        <v>66395.57832303873</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78952.41907175106</v>
+        <v>78952.41907175133</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91212.30300509758</v>
+        <v>91212.30300509761</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480609</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-558361.7075302856</v>
+        <v>-558361.7075302888</v>
       </c>
       <c r="C6" t="n">
-        <v>-68625.20286792639</v>
+        <v>-68625.20286792275</v>
       </c>
       <c r="D6" t="n">
         <v>-14274.78360924515</v>
       </c>
       <c r="E6" t="n">
-        <v>-550394.4896921514</v>
+        <v>-550527.3697543385</v>
       </c>
       <c r="F6" t="n">
-        <v>125170.9153599792</v>
+        <v>125103.7198697535</v>
       </c>
       <c r="G6" t="n">
-        <v>149540.7775363767</v>
+        <v>149473.5820461512</v>
       </c>
       <c r="H6" t="n">
-        <v>149540.777536377</v>
+        <v>149473.582046151</v>
       </c>
       <c r="I6" t="n">
-        <v>149540.7775363767</v>
+        <v>149473.5820461509</v>
       </c>
       <c r="J6" t="n">
-        <v>-14035.835972752</v>
+        <v>-14103.03146297859</v>
       </c>
       <c r="K6" t="n">
-        <v>136904.1215781213</v>
+        <v>136836.9260878962</v>
       </c>
       <c r="L6" t="n">
-        <v>149540.7775363768</v>
+        <v>149473.5820461509</v>
       </c>
       <c r="M6" t="n">
-        <v>30464.89070054048</v>
+        <v>30464.89070054021</v>
       </c>
       <c r="N6" t="n">
         <v>110759.3521323226</v>
       </c>
       <c r="O6" t="n">
-        <v>131591.0994546544</v>
+        <v>131591.0994546542</v>
       </c>
       <c r="P6" t="n">
         <v>131591.0994546546</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.4773500371837</v>
+        <v>335.4773500371866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.1877111996787</v>
+        <v>625.187711199682</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1109.460048226376</v>
+        <v>1109.460048226377</v>
       </c>
       <c r="F4" t="n">
         <v>1194.51293060493</v>
@@ -26820,7 +26820,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.4773500371837</v>
+        <v>335.4773500371866</v>
       </c>
       <c r="C3" t="n">
-        <v>42.26631417990296</v>
+        <v>42.26631417990012</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.1877111996787</v>
+        <v>625.187711199682</v>
       </c>
       <c r="C4" t="n">
-        <v>49.09956155487691</v>
+        <v>49.09956155487362</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>435.1727754718207</v>
+        <v>435.1727754718212</v>
       </c>
       <c r="F4" t="n">
-        <v>85.05288237855393</v>
+        <v>85.05288237855348</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>625.1877111996787</v>
+        <v>625.187711199682</v>
       </c>
       <c r="K4" t="n">
-        <v>49.09956155487691</v>
+        <v>49.09956155487362</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>254.9963060755049</v>
+        <v>254.9963060755056</v>
       </c>
       <c r="N4" t="n">
-        <v>85.05288237855416</v>
+        <v>85.05288237855348</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>625.1877111996787</v>
+        <v>625.187711199682</v>
       </c>
       <c r="K4" t="n">
-        <v>49.09956155487691</v>
+        <v>49.09956155487362</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>435.1727754718207</v>
+        <v>435.1727754718212</v>
       </c>
       <c r="N4" t="n">
-        <v>85.05288237855393</v>
+        <v>85.05288237855348</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264.3796048668141</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.129512671129987</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.15181506969945</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>178.2876470175124</v>
+        <v>178.2876470175121</v>
       </c>
       <c r="T2" t="n">
-        <v>217.1921225298087</v>
+        <v>217.1921225298086</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2377606947592</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.094037673950311</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.2562033676124</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>202.3502410415493</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.386020202654</v>
       </c>
       <c r="H4" t="n">
-        <v>156.8485356494664</v>
+        <v>156.8485356494663</v>
       </c>
       <c r="I4" t="n">
-        <v>137.2577032236025</v>
+        <v>137.2577032236023</v>
       </c>
       <c r="J4" t="n">
-        <v>50.58856780127643</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.50496339607965</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>150.0922278807119</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>120.4329068054137</v>
+        <v>213.473809839902</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>203.7006589875483</v>
       </c>
       <c r="U4" t="n">
         <v>286.2860315843561</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>372.9625923085504</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>212.2230705314841</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>92.71246049576293</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>43.79533272974703</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>206.5828674239353</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>25.3665158533517</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>119.0609444932793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>112.8228492351049</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292461</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348652663466064</v>
+        <v>1.348652663466076</v>
       </c>
       <c r="H2" t="n">
-        <v>13.81188908972183</v>
+        <v>13.81188908972195</v>
       </c>
       <c r="I2" t="n">
-        <v>51.99393180827549</v>
+        <v>51.99393180827593</v>
       </c>
       <c r="J2" t="n">
-        <v>114.465208995853</v>
+        <v>114.4652089958539</v>
       </c>
       <c r="K2" t="n">
-        <v>171.5536762403715</v>
+        <v>171.553676240373</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8275051899211</v>
+        <v>212.8275051899229</v>
       </c>
       <c r="M2" t="n">
-        <v>236.8116069938357</v>
+        <v>236.8116069938377</v>
       </c>
       <c r="N2" t="n">
-        <v>240.6434663739087</v>
+        <v>240.6434663739107</v>
       </c>
       <c r="O2" t="n">
-        <v>227.232801451568</v>
+        <v>227.2328014515699</v>
       </c>
       <c r="P2" t="n">
-        <v>193.9379388222495</v>
+        <v>193.9379388222512</v>
       </c>
       <c r="Q2" t="n">
-        <v>145.639315311871</v>
+        <v>145.6393153118723</v>
       </c>
       <c r="R2" t="n">
-        <v>84.71730287145023</v>
+        <v>84.71730287145095</v>
       </c>
       <c r="S2" t="n">
-        <v>30.73242256873297</v>
+        <v>30.73242256873323</v>
       </c>
       <c r="T2" t="n">
-        <v>5.903727034322699</v>
+        <v>5.903727034322749</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1078922130772851</v>
+        <v>0.107892213077286</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7215927906460179</v>
+        <v>0.721592790646024</v>
       </c>
       <c r="H3" t="n">
-        <v>6.969067214923384</v>
+        <v>6.969067214923443</v>
       </c>
       <c r="I3" t="n">
-        <v>24.84431318671597</v>
+        <v>24.84431318671618</v>
       </c>
       <c r="J3" t="n">
-        <v>68.17469431274506</v>
+        <v>68.17469431274563</v>
       </c>
       <c r="K3" t="n">
-        <v>116.5214112860283</v>
+        <v>116.5214112860292</v>
       </c>
       <c r="L3" t="n">
-        <v>156.677417109347</v>
+        <v>156.6774171093483</v>
       </c>
       <c r="M3" t="n">
-        <v>182.8351557702651</v>
+        <v>182.8351557702667</v>
       </c>
       <c r="N3" t="n">
-        <v>187.6742583005185</v>
+        <v>187.6742583005201</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6852812025199</v>
+        <v>171.6852812025213</v>
       </c>
       <c r="P3" t="n">
-        <v>137.7925742067821</v>
+        <v>137.7925742067833</v>
       </c>
       <c r="Q3" t="n">
-        <v>92.11068674983204</v>
+        <v>92.11068674983282</v>
       </c>
       <c r="R3" t="n">
-        <v>44.80205063326768</v>
+        <v>44.80205063326807</v>
       </c>
       <c r="S3" t="n">
-        <v>13.4032695981837</v>
+        <v>13.40326959818381</v>
       </c>
       <c r="T3" t="n">
-        <v>2.908525327209167</v>
+        <v>2.908525327209192</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04747320991092224</v>
+        <v>0.04747320991092265</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6049591558047575</v>
+        <v>0.6049591558047626</v>
       </c>
       <c r="H4" t="n">
-        <v>5.378636857973211</v>
+        <v>5.378636857973257</v>
       </c>
       <c r="I4" t="n">
-        <v>18.1927717036558</v>
+        <v>18.19277170365596</v>
       </c>
       <c r="J4" t="n">
-        <v>42.77061231539635</v>
+        <v>42.77061231539671</v>
       </c>
       <c r="K4" t="n">
-        <v>70.28525464713454</v>
+        <v>70.28525464713513</v>
       </c>
       <c r="L4" t="n">
-        <v>89.94092758210004</v>
+        <v>89.94092758210081</v>
       </c>
       <c r="M4" t="n">
-        <v>94.83009748674029</v>
+        <v>94.8300974867411</v>
       </c>
       <c r="N4" t="n">
-        <v>92.57524972419536</v>
+        <v>92.57524972419614</v>
       </c>
       <c r="O4" t="n">
-        <v>85.50822685865793</v>
+        <v>85.50822685865866</v>
       </c>
       <c r="P4" t="n">
-        <v>73.16706008024082</v>
+        <v>73.16706008024144</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.65707985561474</v>
+        <v>50.65707985561517</v>
       </c>
       <c r="R4" t="n">
-        <v>27.20116349645754</v>
+        <v>27.20116349645777</v>
       </c>
       <c r="S4" t="n">
-        <v>10.54278819707018</v>
+        <v>10.54278819707027</v>
       </c>
       <c r="T4" t="n">
-        <v>2.584825483893054</v>
+        <v>2.584825483893076</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03299777213480499</v>
+        <v>0.03299777213480527</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.5159196412405</v>
+        <v>102.5159196412414</v>
       </c>
       <c r="K2" t="n">
-        <v>275.6092377665557</v>
+        <v>275.6092377665572</v>
       </c>
       <c r="L2" t="n">
-        <v>394.7223047703843</v>
+        <v>394.7223047703861</v>
       </c>
       <c r="M2" t="n">
-        <v>455.9789072593954</v>
+        <v>455.9789072593975</v>
       </c>
       <c r="N2" t="n">
-        <v>448.577327189302</v>
+        <v>448.577327189304</v>
       </c>
       <c r="O2" t="n">
-        <v>377.9347712926266</v>
+        <v>377.9347712926286</v>
       </c>
       <c r="P2" t="n">
-        <v>284.5036512384626</v>
+        <v>284.5036512384643</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.6486160973262</v>
+        <v>135.6486160973275</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>67.42810298648777</v>
       </c>
       <c r="K3" t="n">
-        <v>243.1452093242478</v>
+        <v>243.1452093242488</v>
       </c>
       <c r="L3" t="n">
-        <v>282.8259279052062</v>
+        <v>388.9633826329333</v>
       </c>
       <c r="M3" t="n">
-        <v>506.4061855982467</v>
+        <v>506.4061855982483</v>
       </c>
       <c r="N3" t="n">
-        <v>535.6749205607387</v>
+        <v>535.6749205607402</v>
       </c>
       <c r="O3" t="n">
-        <v>422.9513560348049</v>
+        <v>249.3857983205971</v>
       </c>
       <c r="P3" t="n">
-        <v>322.2809354323891</v>
+        <v>322.2809354323903</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.2062003996596</v>
+        <v>162.2062003996604</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.01576282125168</v>
+        <v>48.01576282125228</v>
       </c>
       <c r="L4" t="n">
-        <v>117.5309528424162</v>
+        <v>117.530952842417</v>
       </c>
       <c r="M4" t="n">
-        <v>134.4139744485809</v>
+        <v>134.4139744485817</v>
       </c>
       <c r="N4" t="n">
-        <v>136.7074221034239</v>
+        <v>136.7074221034247</v>
       </c>
       <c r="O4" t="n">
-        <v>110.0933547726976</v>
+        <v>110.0933547726983</v>
       </c>
       <c r="P4" t="n">
-        <v>70.4456193451343</v>
+        <v>70.44561934513493</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>463.5176486219036</v>
+        <v>463.5176486219054</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789533</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>295.184672023461</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>568.8760771471024</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>472.8298519832966</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>355.1919758584674</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>866.0091179129988</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>501.6149172704004</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>754.5075703690651</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>80.75159439813847</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237194</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>78.40488999845731</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>315.3055921237181</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237176</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>474.9932304177972</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
